--- a/biology/Botanique/Médaille_Engler/Médaille_Engler.xlsx
+++ b/biology/Botanique/Médaille_Engler/Médaille_Engler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_Engler</t>
+          <t>Médaille_Engler</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La médaille Engler est une distinction botanique décerné par l’International Association for Plant Taxonomy depuis 1986. Commémorant le botaniste allemand Heinrich Gustav Adolf Engler (1844-1930), elle est attribuée tous les six ans, lors des congrès internationaux de botanique, à un botaniste pour l’importance de ces travaux en taxinomie végétale. Depuis 2002, cette récompense est scindée en trois : la médaille d'argent Engler (décernée annuellement pour une publication remarquable sur la taxinomie des plantes à fleurs), la médaille Stafleu (décernée annuellement pour une publication portant sur les aspects historiques, bibliographiques ou nomenclaturaux de la taxinomie végétales) et la médaille Stebbins (décernée annuelle pour une publication portant sur l’évolution des plantes).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_Engler</t>
+          <t>Médaille_Engler</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Liste des lauréats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1987 : Frans Antonie Stafleu (1921-1997).
 1999 : William Thomas Stearn (1911-2001).
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_Engler</t>
+          <t>Médaille_Engler</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Site officiel de l'International Association for Plant Taxonomy
  Portail de l’histoire de la zoologie et de la botanique   Portail de la botanique                    </t>
